--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="4056"/>
@@ -39,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -146,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +186,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,19 +397,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -415,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -423,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -438,24 +448,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
